--- a/Reports/BIRforms/1604NEW.xlsx
+++ b/Reports/BIRforms/1604NEW.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>AS OF DECEMBER 31,2019</t>
   </si>
@@ -255,15 +255,6 @@
   </si>
   <si>
     <t>------------------------------</t>
-  </si>
-  <si>
-    <t>Nino, Lizney Ocuaman</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Bacalla, Mar Antonio Flores</t>
   </si>
   <si>
     <t>------------------</t>
@@ -1312,130 +1303,44 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>987654322</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="4">
-        <v>8476.2999375</v>
-      </c>
-      <c r="E17" s="6">
-        <v>741.74369791667</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>500</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1241.7436979167</v>
-      </c>
-      <c r="J17" s="4">
-        <v>7234.5562395833</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>7234.5562395833</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4">
-        <v>7234.5562395833</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:23">
       <c r="D19" s="4"/>
@@ -1559,48 +1464,48 @@
     </row>
     <row r="25" spans="1:23">
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="5" t="str">
         <f>SUM(D17:D25)</f>
@@ -1681,43 +1586,43 @@
     </row>
     <row r="27" spans="1:23">
       <c r="D27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
